--- a/outputs-HGR-r202/test-f__Bifidobacteriaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Bifidobacteriaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -364,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -374,14 +374,50 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,1166 +436,1166 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2450.3883699564058</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2696.8669210263397</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2359.8443429788226</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2609.3986497324172</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1859.6607549073278</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3638.5791972500438</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1862.3095663409281</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2886.0783273804786</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2767.8482318655815</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3069.7745961717678</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3625.5374398950953</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2337.4229952855994</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2333.2105051907738</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2205.1740855836206</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2013.075379025393</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1803.0745621228889</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2494.3826835488394</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>1617.0076792475311</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>1993.3920930649942</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2373.4904017205849</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2482.9601244215637</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2151.3147821457032</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2526.4258398085799</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3085.3121084004847</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2700.9580480812579</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2231.764019114134</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2200.5349373358149</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>1841.4077973896397</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="19" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2092.9721007430962</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2116.961804656934</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2567.5304221340675</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2543.0436961362921</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2720.3230766338697</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2326.1549804271644</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2343.033841259999</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2458.9154794080746</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2497.2336538096606</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>1769.1186651795315</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2268.1103493241849</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2066.9042173109142</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="19" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2114.2210655248082</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3095.6309603517425</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2048.6468072794314</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2283.8572445444879</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3842.0342369756318</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2426.5329916867477</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2091.5985352889456</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2219.3276546927314</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2538.9585492323513</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2436.076886257461</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>1872.3640243249411</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2015.3443634012765</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2617.7695907237107</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2422.7299162800023</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2362.2620082649823</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2442.4246025622815</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2773.193728069602</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>1355.2251873695523</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2835.0683694009836</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2847.9942108634582</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>1655.9057895821934</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>3075.9989372366581</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3361.6054234392568</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2472.2045457962322</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>3253.9803857732541</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3229.7036797482442</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="19" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>1902.8451235938942</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>3118.9321109000789</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>962.32307369096281</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="19" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>1517.0226512506019</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3551.2287674687605</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3481.7158850944397</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3452.2834039909631</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3691.4748574407613</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2127.3889853216324</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3203.1147411535972</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2016.6463498447033</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2346.934719291185</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3385.954069690295</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3343.2199636648584</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2232.6506532569711</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2799.4406481073224</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="19" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>1772.3276428509344</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3864.5907157648126</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="19" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2403.7641461126632</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>2958.1241943757573</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2202.5239542653867</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2065.5503605847402</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>1592.4097376315494</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>3177.1809811016337</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2894.5625526247973</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2678.2892768783959</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
+      <c r="A94" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>2753.5290970539772</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
+      <c r="A95" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3534.2147963383368</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
+      <c r="A96" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3364.4942886610952</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
+      <c r="A97" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3380.5453985933118</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
+      <c r="A98" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2989.7437351939193</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
+      <c r="A99" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>3427.8575475769048</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
+      <c r="A100" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2750.1395262257993</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
+      <c r="A101" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>3046.6927302833351</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
+      <c r="A102" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>2401.57166098677</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2401.57166098677</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
+      <c r="A104" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>1278.6723586869375</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
+      <c r="A105" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2186.4123533004408</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
+      <c r="A106" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3312.198688585624</v>
       </c>
       <c r="C106">
         <v>1</v>

--- a/outputs-HGR-r202/test-f__Bifidobacteriaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Bifidobacteriaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Row</t>
   </si>
@@ -22,33 +22,21 @@
     <t>even_MAG-GUT1012.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT10488.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT1826.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT2058.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT2078.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT2079.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT23346.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT23723.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT26586.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT28721.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT28738.fa</t>
   </si>
   <si>
@@ -100,30 +88,18 @@
     <t>even_MAG-GUT43623.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT43628.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT43934.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT441.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT444.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT445.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT44512.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT446.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT44736.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT450.fa</t>
   </si>
   <si>
@@ -133,9 +109,6 @@
     <t>even_MAG-GUT453.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT455.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT456.fa</t>
   </si>
   <si>
@@ -145,30 +118,18 @@
     <t>even_MAG-GUT4577.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT45829.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT459.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46159.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT462.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT463.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT464.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT46486.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT46493.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT465.fa</t>
   </si>
   <si>
@@ -196,27 +157,12 @@
     <t>even_MAG-GUT47585.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT47777.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT48579.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT54955.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT55792.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT56059.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT59472.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT62023.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT64457.fa</t>
   </si>
   <si>
@@ -232,27 +178,12 @@
     <t>even_MAG-GUT67723.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT67770.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT67779.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT67830.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT67975.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT68007.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT68189.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT68190.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT68197.fa</t>
   </si>
   <si>
@@ -268,9 +199,6 @@
     <t>even_MAG-GUT68968.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT69048.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT69064.fa</t>
   </si>
   <si>
@@ -295,33 +223,12 @@
     <t>even_MAG-GUT69447.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT7042.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT74347.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT7772.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT80568.fa</t>
   </si>
   <si>
-    <t>even_MAG-GUT81204.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT85070.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT86606.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT88052.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT88444.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT9016.fa</t>
   </si>
   <si>
@@ -335,9 +242,6 @@
   </si>
   <si>
     <t>even_MAG-GUT92065.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT9523.fa</t>
   </si>
   <si>
     <t>1-g__Bifidobacterium</t>
@@ -364,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -374,50 +278,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C76"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -436,18 +304,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>109</v>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -458,1168 +326,816 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2696.8669210263397</v>
+        <v>2359.8443429788226</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2359.8443429788226</v>
+        <v>2609.3986497324172</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2609.3986497324172</v>
+        <v>3638.5791972500438</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1859.6607549073278</v>
+        <v>2886.0783273804786</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3638.5791972500438</v>
+        <v>2767.8482318655815</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1862.3095663409281</v>
+        <v>3625.5374398950953</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2886.0783273804786</v>
+        <v>2337.4229952855994</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2767.8482318655815</v>
+        <v>2333.2105051907738</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3069.7745961717678</v>
+        <v>2205.1740855836206</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3625.5374398950953</v>
+        <v>2013.075379025393</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2337.4229952855994</v>
+        <v>1803.0745621228889</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2333.2105051907738</v>
+        <v>2494.3826835488394</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2205.1740855836206</v>
+        <v>1617.0076792475311</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2013.075379025393</v>
+        <v>1993.3920930649942</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1803.0745621228889</v>
+        <v>2373.4904017205849</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2494.3826835488394</v>
+        <v>2482.9601244215637</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1617.0076792475311</v>
+        <v>2151.3147821457032</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1993.3920930649942</v>
+        <v>2526.4258398085799</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2373.4904017205849</v>
+        <v>3085.3121084004847</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2482.9601244215637</v>
+        <v>2700.9580480812579</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2151.3147821457032</v>
+        <v>2231.764019114134</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2526.4258398085799</v>
+        <v>2200.5349373358149</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3085.3121084004847</v>
+        <v>2092.9721007430962</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2700.9580480812579</v>
+        <v>2567.5304221340675</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2231.764019114134</v>
+        <v>2543.0436961362921</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2200.5349373358149</v>
+        <v>2326.1549804271644</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1841.4077973896397</v>
+        <v>2458.9154794080746</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2092.9721007430962</v>
+        <v>2497.2336538096606</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>2116.961804656934</v>
+        <v>1769.1186651795315</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2567.5304221340675</v>
+        <v>2066.9042173109142</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2543.0436961362921</v>
+        <v>2114.2210655248082</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>2720.3230766338697</v>
+        <v>3095.6309603517425</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2326.1549804271644</v>
+        <v>2283.8572445444879</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>2343.033841259999</v>
+        <v>2426.5329916867477</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>2458.9154794080746</v>
+        <v>2091.5985352889456</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2497.2336538096606</v>
+        <v>2538.9585492323513</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1769.1186651795315</v>
+        <v>1872.3640243249411</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>2268.1103493241849</v>
+        <v>2015.3443634012765</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>2066.9042173109142</v>
+        <v>2617.7695907237107</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2114.2210655248082</v>
+        <v>2422.7299162800023</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>3095.6309603517425</v>
+        <v>2362.2620082649823</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2048.6468072794314</v>
+        <v>2442.4246025622815</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2283.8572445444879</v>
+        <v>2773.193728069602</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>3842.0342369756318</v>
+        <v>1355.2251873695523</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2426.5329916867477</v>
+        <v>2835.0683694009836</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2091.5985352889456</v>
+        <v>1655.9057895821934</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2219.3276546927314</v>
+        <v>2472.2045457962322</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2538.9585492323513</v>
+        <v>1902.8451235938942</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2436.076886257461</v>
+        <v>3118.9321109000789</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1872.3640243249411</v>
+        <v>962.32307369096281</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2015.3443634012765</v>
+        <v>1517.0226512506019</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2617.7695907237107</v>
+        <v>3551.2287674687605</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2422.7299162800023</v>
+        <v>2127.3889853216324</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2362.2620082649823</v>
+        <v>2016.6463498447033</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2442.4246025622815</v>
+        <v>3385.954069690295</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2773.193728069602</v>
+        <v>3343.2199636648584</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1355.2251873695523</v>
+        <v>2232.6506532569711</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>2835.0683694009836</v>
+        <v>2799.4406481073224</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>2847.9942108634582</v>
+        <v>1772.3276428509344</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1655.9057895821934</v>
+        <v>2403.7641461126632</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3075.9989372366581</v>
+        <v>2958.1241943757573</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>3361.6054234392568</v>
+        <v>2202.5239542653867</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>2472.2045457962322</v>
+        <v>2065.5503605847402</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>3253.9803857732541</v>
+        <v>1592.4097376315494</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3229.7036797482442</v>
+        <v>3177.1809811016337</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1902.8451235938942</v>
+        <v>2894.5625526247973</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>3118.9321109000789</v>
+        <v>2678.2892768783959</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>962.32307369096281</v>
+        <v>2753.5290970539772</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1517.0226512506019</v>
+        <v>3364.4942886610952</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>3551.2287674687605</v>
+        <v>3046.6927302833351</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>3481.7158850944397</v>
+        <v>2401.57166098677</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>3452.2834039909631</v>
+        <v>2401.57166098677</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>3691.4748574407613</v>
+        <v>1278.6723586869375</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2127.3889853216324</v>
+        <v>2186.4123533004408</v>
       </c>
       <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>3203.1147411535972</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>2016.6463498447033</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>2346.934719291185</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>3385.954069690295</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>3343.2199636648584</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>2232.6506532569711</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>2799.4406481073224</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>1772.3276428509344</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>3864.5907157648126</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>2403.7641461126632</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>2958.1241943757573</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>2202.5239542653867</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>2065.5503605847402</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>1592.4097376315494</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>3177.1809811016337</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>2894.5625526247973</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>2678.2892768783959</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94">
-        <v>2753.5290970539772</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95">
-        <v>3534.2147963383368</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96">
-        <v>3364.4942886610952</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97">
-        <v>3380.5453985933118</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98">
-        <v>2989.7437351939193</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99">
-        <v>3427.8575475769048</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100">
-        <v>2750.1395262257993</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101">
-        <v>3046.6927302833351</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102">
-        <v>2401.57166098677</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103">
-        <v>2401.57166098677</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104">
-        <v>1278.6723586869375</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105">
-        <v>2186.4123533004408</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106">
-        <v>3312.198688585624</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
         <v>1</v>
       </c>
     </row>
